--- a/medicine/Œil et vue/Muscle_orbiculaire_de_l'œil/Muscle_orbiculaire_de_l'œil.xlsx
+++ b/medicine/Œil et vue/Muscle_orbiculaire_de_l'œil/Muscle_orbiculaire_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle orbiculaire de l'œil (Musculus orbicularis oculi en latin) ou muscle orbiculaire des paupières est un muscle formant une zone elliptique autour des paupières et s'étalant en une couche mince sur les paupières elles-mêmes. Il est divisé traditionnellement en trois parties : palpébrale, orbitaire et lacrymale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>La portion palpébrale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mince et pâle, cette partie est tendue entre le ligament palpébral médial et le ligament palabépral latéral, se divisant en deux la partie supérieure passant dans la paupière supérieure, la partie inférieure dans la paupière inférieure.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>La portion orbitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus épaisses que la portion précédente et de couleur rouge vif, ses fibres circulaires font le tour de l'orbite s'insérant sur le processus frontal du maxillaire.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>La portion lacrymale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette partie est tendue entre le ligament palpébral médial et la crête lacrymale postérieure. 
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf facial (VII).
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_orbiculaire_de_l%27%C5%93il</t>
+          <t>Muscle_orbiculaire_de_l'œil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est responsable de la fermeture de l'œil.
 La portion palpébrale est sollicitée lors des clignements et des clins d'œil. Elle est elle-même divisée en deux parties:
